--- a/final_preparation/Discrete_Dividend_HW11/HW11_Group5_graded.xlsx
+++ b/final_preparation/Discrete_Dividend_HW11/HW11_Group5_graded.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/Final Preparation/Discrete_Dividend_HW11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/MTH9821-numerical-method-for-financial-engineering/final_preparation/Discrete_Dividend_HW11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB96222-9683-CD48-943E-8AC9F797E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC6986A-C36E-6C43-91C9-297BC8CAAF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="34340" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="6820" windowWidth="44100" windowHeight="21520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="56">
   <si>
     <t>Binomial Tree Methods for Discrete–Dividend–Paying Assets</t>
   </si>
@@ -201,6 +201,9 @@
   <si>
     <t>Variance Reduction Converges faster as we get close the value we finally converge within 10000 steps with Varinace Reduction</t>
   </si>
+  <si>
+    <t>Version 2</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -552,7 +561,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -838,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -850,7 +873,19 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -1024,7 +1059,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1057,18 +1094,38 @@
         <v>-1.68709</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="H7" s="19">
+        <v>6.4204539843933999</v>
+      </c>
+      <c r="I7" s="37">
+        <v>6144</v>
+      </c>
+      <c r="J7" s="19">
+        <v>-0.78212939212768995</v>
+      </c>
+      <c r="K7" s="19">
+        <v>4.4904553454291E-2</v>
+      </c>
+      <c r="L7" s="19">
+        <v>-1.6870898809320001</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="19">
+        <v>6.42049</v>
+      </c>
+      <c r="P7" s="37">
+        <v>6144</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>-0.78213299999999997</v>
+      </c>
+      <c r="R7" s="19">
+        <v>4.4905399999999998E-2</v>
+      </c>
+      <c r="S7" s="19">
+        <v>-1.6871400000000001</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -1096,19 +1153,39 @@
       <c r="F8" s="29">
         <v>-1.65449</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19">
+        <v>6.5244044533696002</v>
+      </c>
+      <c r="I8" s="37">
+        <v>6144</v>
+      </c>
+      <c r="J8" s="19">
+        <v>-0.79454876439711997</v>
+      </c>
+      <c r="K8" s="19">
+        <v>4.4858373100664997E-2</v>
+      </c>
+      <c r="L8" s="19">
+        <v>-1.6544852287116001</v>
+      </c>
+      <c r="M8" s="19"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="19">
+        <v>6.5244499999999999</v>
+      </c>
+      <c r="P8" s="37">
+        <v>6144</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>-0.79455200000000004</v>
+      </c>
+      <c r="R8" s="19">
+        <v>4.4859000000000003E-2</v>
+      </c>
+      <c r="S8" s="19">
+        <v>-1.6545300000000001</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -1124,19 +1201,19 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -1164,19 +1241,19 @@
       <c r="F10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -1204,19 +1281,39 @@
       <c r="F11" s="29">
         <v>-0.96396999999999999</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19">
+        <v>7.9513786588426996</v>
+      </c>
+      <c r="I11" s="37">
+        <v>3584</v>
+      </c>
+      <c r="J11" s="19">
+        <v>-0.68428795872435</v>
+      </c>
+      <c r="K11" s="19">
+        <v>3.3927780317363002E-2</v>
+      </c>
+      <c r="L11" s="19">
+        <v>-0.96397047717982998</v>
+      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
+      <c r="O11" s="19">
+        <v>7.9514199999999997</v>
+      </c>
+      <c r="P11" s="37">
+        <v>3584</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>-0.68430199999999997</v>
+      </c>
+      <c r="R11" s="19">
+        <v>3.3929800000000003E-2</v>
+      </c>
+      <c r="S11" s="19">
+        <v>-0.96409199999999995</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -1244,19 +1341,39 @@
       <c r="F12" s="29">
         <v>-0.94054099999999996</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19">
+        <v>8.0604513810621992</v>
+      </c>
+      <c r="I12" s="37">
+        <v>1792</v>
+      </c>
+      <c r="J12" s="19">
+        <v>-0.69183315826830005</v>
+      </c>
+      <c r="K12" s="19">
+        <v>3.3876972329882002E-2</v>
+      </c>
+      <c r="L12" s="19">
+        <v>-0.94054123135992995</v>
+      </c>
+      <c r="M12" s="19"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="19">
+        <v>8.0603599999999993</v>
+      </c>
+      <c r="P12" s="37">
+        <v>1792</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>-0.691882</v>
+      </c>
+      <c r="R12" s="19">
+        <v>3.3881399999999999E-2</v>
+      </c>
+      <c r="S12" s="19">
+        <v>-0.94078300000000004</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -1272,19 +1389,19 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
@@ -1300,19 +1417,19 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -1330,19 +1447,19 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1358,19 +1475,19 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -1398,19 +1515,19 @@
       <c r="F17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -1438,29 +1555,39 @@
       <c r="F18" s="29">
         <v>-1.56498</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19">
         <v>6.5751785720322999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="37">
         <v>3072</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="39">
         <v>-0.78774971334706001</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="39">
         <v>4.3564696339810999E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="19">
         <v>-1.5649823547374</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
+      <c r="O18" s="19">
+        <v>6.5752699999999997</v>
+      </c>
+      <c r="P18" s="37">
+        <v>3072</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>-0.80290799999999996</v>
+      </c>
+      <c r="R18" s="39">
+        <v>4.5258399999999997E-2</v>
+      </c>
+      <c r="S18" s="19">
+        <v>-1.56508</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -1488,29 +1615,39 @@
       <c r="F19" s="29">
         <v>-1.52677</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="G19" s="19"/>
+      <c r="H19" s="19">
         <v>6.6816756956073</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="37">
         <v>1536</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="39">
         <v>-0.80010774423011999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="39">
         <v>4.3446497354151001E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="19">
         <v>-1.5267689300234999</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="O19" s="19">
+        <v>6.6815899999999999</v>
+      </c>
+      <c r="P19" s="37">
+        <v>1536</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>-0.81556300000000004</v>
+      </c>
+      <c r="R19" s="39">
+        <v>4.5135599999999998E-2</v>
+      </c>
+      <c r="S19" s="19">
+        <v>-1.5267500000000001</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -1526,19 +1663,19 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -1566,19 +1703,19 @@
       <c r="F21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -1606,29 +1743,39 @@
       <c r="F22" s="22">
         <v>-0.7875091441455</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22">
+      <c r="G22" s="19"/>
+      <c r="H22" s="40">
         <v>8.3844274714406009</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="41">
         <v>14336</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="39">
         <v>-0.69637035601649</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="39">
         <v>3.2200046800921998E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="39">
         <v>-0.78750914414559003</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
+      <c r="O22" s="40">
+        <v>8.3844200000000004</v>
+      </c>
+      <c r="P22" s="41">
+        <v>14336</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>-0.73787800000000003</v>
+      </c>
+      <c r="R22" s="39">
+        <v>3.6153100000000001E-2</v>
+      </c>
+      <c r="S22" s="39">
+        <v>-0.78753700000000004</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -1656,29 +1803,39 @@
       <c r="F23" s="22">
         <v>-1.15682</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="36">
+      <c r="G23" s="19"/>
+      <c r="H23" s="40">
         <v>8.4981012606006008</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="41">
         <v>14336</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="39">
         <v>-0.7037589411024</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="39">
         <v>3.2094651146110001E-2</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="39">
         <v>-0.75995095178951</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="19"/>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="O23" s="40">
+        <v>8.4981100000000005</v>
+      </c>
+      <c r="P23" s="41">
+        <v>14336</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>-0.74570599999999998</v>
+      </c>
+      <c r="R23" s="39">
+        <v>3.60346E-2</v>
+      </c>
+      <c r="S23" s="39">
+        <v>-0.75996699999999995</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -1694,17 +1851,19 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -1720,17 +1879,19 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -1748,17 +1909,19 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -1774,17 +1937,19 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
       <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -1812,17 +1977,19 @@
       <c r="F28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -1850,29 +2017,39 @@
       <c r="F29" s="29">
         <v>-0.92011799999999999</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29">
+      <c r="G29" s="19"/>
+      <c r="H29" s="43">
         <v>8.0586201181813006</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="44">
         <v>7168</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="45">
         <v>-0.68742847558668996</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="39">
         <v>3.3501737465027999E-2</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="45">
         <v>-0.92011827160240001</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
+      <c r="O29" s="43">
+        <v>8.0521700000000003</v>
+      </c>
+      <c r="P29" s="44">
+        <v>7168</v>
+      </c>
+      <c r="Q29" s="39">
+        <v>-0.70683799999999997</v>
+      </c>
+      <c r="R29" s="39">
+        <v>3.5465999999999998E-2</v>
+      </c>
+      <c r="S29" s="45">
+        <v>-0.92281299999999999</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -1900,29 +2077,39 @@
       <c r="F30" s="29">
         <v>-0.89554999999999996</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30">
+      <c r="G30" s="19"/>
+      <c r="H30" s="43">
         <v>8.1688163909989999</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="44">
         <v>7168</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="45">
         <v>-0.69492634063332004</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="39">
         <v>3.3435627869322998E-2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="45">
         <v>-0.89554981070614004</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
+      <c r="O30" s="43">
+        <v>8.1623400000000004</v>
+      </c>
+      <c r="P30" s="44">
+        <v>7168</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>-0.71454899999999999</v>
+      </c>
+      <c r="R30" s="39">
+        <v>3.5396400000000001E-2</v>
+      </c>
+      <c r="S30" s="45">
+        <v>-0.89826899999999998</v>
+      </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -1930,6 +2117,24 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2910,7 +3115,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/final_preparation/Discrete_Dividend_HW11/HW11_Group5_graded.xlsx
+++ b/final_preparation/Discrete_Dividend_HW11/HW11_Group5_graded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericzeng/Documents/numerical-method-for-finance/MTH9821-numerical-method-for-financial-engineering/final_preparation/Discrete_Dividend_HW11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC6986A-C36E-6C43-91C9-297BC8CAAF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552D3D8-DA19-864E-9487-0B93E628FF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="6820" windowWidth="44100" windowHeight="21520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-340" yWindow="3880" windowWidth="44100" windowHeight="21520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,11 +571,6 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -861,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2018,27 +2013,27 @@
         <v>-0.92011799999999999</v>
       </c>
       <c r="G29" s="19"/>
-      <c r="H29" s="43">
+      <c r="H29" s="34">
         <v>8.0586201181813006</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="38">
         <v>7168</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="19">
         <v>-0.68742847558668996</v>
       </c>
       <c r="K29" s="39">
         <v>3.3501737465027999E-2</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="19">
         <v>-0.92011827160240001</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="43">
+      <c r="O29" s="34">
         <v>8.0521700000000003</v>
       </c>
-      <c r="P29" s="44">
+      <c r="P29" s="38">
         <v>7168</v>
       </c>
       <c r="Q29" s="39">
@@ -2047,7 +2042,7 @@
       <c r="R29" s="39">
         <v>3.5465999999999998E-2</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="19">
         <v>-0.92281299999999999</v>
       </c>
       <c r="T29" s="4"/>
@@ -2078,27 +2073,27 @@
         <v>-0.89554999999999996</v>
       </c>
       <c r="G30" s="19"/>
-      <c r="H30" s="43">
+      <c r="H30" s="34">
         <v>8.1688163909989999</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="38">
         <v>7168</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="19">
         <v>-0.69492634063332004</v>
       </c>
       <c r="K30" s="39">
         <v>3.3435627869322998E-2</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="19">
         <v>-0.89554981070614004</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="43">
+      <c r="O30" s="34">
         <v>8.1623400000000004</v>
       </c>
-      <c r="P30" s="44">
+      <c r="P30" s="38">
         <v>7168</v>
       </c>
       <c r="Q30" s="39">
@@ -2107,7 +2102,7 @@
       <c r="R30" s="39">
         <v>3.5396400000000001E-2</v>
       </c>
-      <c r="S30" s="45">
+      <c r="S30" s="19">
         <v>-0.89826899999999998</v>
       </c>
       <c r="T30" s="4"/>
